--- a/config_Release/act_022_qflb_config.xlsx
+++ b/config_Release/act_022_qflb_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_key" sheetId="1" r:id="rId1"/>
@@ -72,9 +77,6 @@
     <t>150000,700</t>
   </si>
   <si>
-    <t>3D捕鱼中累计赢金&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>"100福利券","锁定x1",</t>
   </si>
   <si>
@@ -87,9 +89,6 @@
     <t>2200000,3000</t>
   </si>
   <si>
-    <t>3D捕鱼中累计赢金&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>"100福利券","4万金币","锁定x1",</t>
   </si>
   <si>
@@ -184,19 +183,21 @@
   </si>
   <si>
     <t>3.不同种类的礼包可叠加购买领奖</t>
+  </si>
+  <si>
+    <t>3D捕鱼中累计消耗&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计消耗&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +215,7 @@
       <sz val="10.5"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -223,345 +224,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -569,255 +260,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,62 +288,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1181,19 +589,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -1202,7 +610,7 @@
     <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1220,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1240,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1261,22 +669,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
@@ -1289,7 +696,7 @@
     <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:11">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1344,19 +751,19 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:11">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1367,7 +774,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1378,20 +785,20 @@
       <c r="G3">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1402,7 +809,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>198</v>
@@ -1414,19 +821,19 @@
         <v>90</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1449,19 +856,19 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1472,7 +879,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1484,19 +891,19 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1507,7 +914,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>198</v>
@@ -1519,115 +926,115 @@
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" ht="69" spans="1:4">
+    <row r="2" spans="1:16" ht="69" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" ht="69" spans="1:4">
+    </row>
+    <row r="3" spans="1:16" ht="69" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_022_qflb_config.xlsx
+++ b/config_Release/act_022_qflb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>game_MiniGame</t>
   </si>
   <si>
-    <t>水果消消乐累计赢金&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>"100福利券","玩具锤x1",</t>
   </si>
   <si>
@@ -119,16 +116,10 @@
     <t>game_Eliminate</t>
   </si>
   <si>
-    <t>水果消消乐累计赢金&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>"100福利券","4万金币","玩具锤x1",</t>
   </si>
   <si>
     <t>"ty_icon_flq3","ty_icon_jb","zjd_icon_wjc",</t>
-  </si>
-  <si>
-    <t>水果消消乐累计赢金&lt;color=#FFF950&gt;200万&lt;/color&gt;</t>
   </si>
   <si>
     <t>"220福利券","5万金币","玩具锤x1",</t>
@@ -191,6 +182,15 @@
   <si>
     <t>3D捕鱼中累计消耗&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠消消乐累计赢金&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>萌宠消消乐累计赢金&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>萌宠消消乐累计赢金&lt;color=#FFF950&gt;200万&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -856,16 +856,16 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
@@ -891,16 +891,16 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
@@ -926,16 +926,16 @@
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -962,46 +962,46 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -1010,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="69" x14ac:dyDescent="0.15">
@@ -1024,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
